--- a/biology/Zoologie/Geophis_zeledoni/Geophis_zeledoni.xlsx
+++ b/biology/Zoologie/Geophis_zeledoni/Geophis_zeledoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geophis zeledoni  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geophis zeledoni  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la Cordillère Centrale au Costa Rica. Elle se rencontre entre 1 829 et 2 100 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la Cordillère Centrale au Costa Rica. Elle se rencontre entre 1 829 et 2 100 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Geophis zeledoni[2] mesure 397 mm dont 70 mm pour la queue. Cette espèce présente un dos brun lavande ou lavande très sombre fortement iridescent. Sa tête est grisâtre ou brun gris et sa face ventrale brun lavande taché de clair.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Geophis zeledoni mesure 397 mm dont 70 mm pour la queue. Cette espèce présente un dos brun lavande ou lavande très sombre fortement iridescent. Sa tête est grisâtre ou brun gris et sa face ventrale brun lavande taché de clair.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de José Castulo Zeledón, scientifique costaricien qui a étudié et collecté les reptiles de son pays durant plus de 75 ans[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de José Castulo Zeledón, scientifique costaricien qui a étudié et collecté les reptiles de son pays durant plus de 75 ans.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Taylor, 1954 : Further studies on the serpents of Costa Rica. The University of Kansas Science Bulletin, vol. 36, no 11, p. 673-800 (texte intégral).</t>
         </is>
